--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af0e924bb0db5073/Desktop/UPenn_Project2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="140" documentId="8_{54B7764C-E9F5-485E-9CAD-544D65AC1569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21D6471B-01E9-47D1-8547-9E159D5610E1}"/>
+  <xr:revisionPtr revIDLastSave="175" documentId="8_{54B7764C-E9F5-485E-9CAD-544D65AC1569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D339D5F-F6FB-4202-8F8F-6EA90EAB8CD8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4E609C33-0A9E-4DBE-9D4A-33AF5187E0F5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="45">
   <si>
     <t>Source</t>
   </si>
@@ -151,6 +151,23 @@
   </si>
   <si>
     <t>datetime' column now has data between the years 2003 and 2013</t>
+  </si>
+  <si>
+    <t>Mongodb</t>
+  </si>
+  <si>
+    <t>joined tables on date</t>
+  </si>
+  <si>
+    <t>• separating date and time
+• jsonified the data
+• filtering years between 2003-2013</t>
+  </si>
+  <si>
+    <t>•  jsonified the data
+• separating date and time
+• creating new 'year' column
+• filtering years between 2003-2013</t>
   </si>
 </sst>
 </file>
@@ -275,37 +292,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -622,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5513CD8C-2D59-47E8-A428-49A9DEB47A60}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,55 +655,55 @@
     <col min="6" max="6" width="16.109375" customWidth="1"/>
     <col min="7" max="7" width="18.44140625" customWidth="1"/>
     <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="70.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="8" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -698,10 +715,10 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H3" t="s">
@@ -712,7 +729,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
+      <c r="A4" s="9"/>
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -722,8 +739,8 @@
       <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
       <c r="G4" t="s">
         <v>18</v>
       </c>
@@ -735,7 +752,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
+      <c r="A5" s="9"/>
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -745,8 +762,8 @@
       <c r="D5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
       <c r="G5" t="s">
         <v>21</v>
       </c>
@@ -758,7 +775,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
+      <c r="A6" s="9"/>
       <c r="B6" t="s">
         <v>24</v>
       </c>
@@ -768,8 +785,8 @@
       <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
       <c r="G6" t="s">
         <v>24</v>
       </c>
@@ -781,7 +798,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="10"/>
       <c r="B7" t="s">
         <v>24</v>
       </c>
@@ -791,8 +808,8 @@
       <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
       <c r="G7" t="s">
         <v>24</v>
       </c>
@@ -807,7 +824,7 @@
       <c r="A8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C8" t="s">
@@ -816,10 +833,10 @@
       <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="9" t="s">
         <v>33</v>
       </c>
       <c r="H8" t="s">
@@ -830,7 +847,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
+      <c r="A9" s="9"/>
       <c r="B9" t="s">
         <v>18</v>
       </c>
@@ -840,8 +857,8 @@
       <c r="D9" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="4"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
       <c r="G9" t="s">
         <v>18</v>
       </c>
@@ -853,7 +870,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
+      <c r="A10" s="9"/>
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -863,8 +880,8 @@
       <c r="D10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="4"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
       <c r="G10" t="s">
         <v>10</v>
       </c>
@@ -876,7 +893,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
+      <c r="A11" s="9"/>
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -886,8 +903,8 @@
       <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="4"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
       <c r="G11" t="s">
         <v>24</v>
       </c>
@@ -899,7 +916,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
+      <c r="A12" s="9"/>
       <c r="B12" t="s">
         <v>24</v>
       </c>
@@ -909,8 +926,8 @@
       <c r="D12" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="4"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
       <c r="G12" t="s">
         <v>24</v>
       </c>
@@ -922,7 +939,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
+      <c r="A13" s="9"/>
       <c r="B13" t="s">
         <v>36</v>
       </c>
@@ -932,29 +949,290 @@
       <c r="D13" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="4"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
       <c r="H13" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10"/>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="10"/>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
+      <c r="G22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="10"/>
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="15">
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="F19:F24"/>
+    <mergeCell ref="E19:E24"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="F14:F18"/>
     <mergeCell ref="E3:E7"/>
     <mergeCell ref="F3:F7"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="E8:E13"/>
     <mergeCell ref="F8:F13"/>
     <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:I1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{85B005B1-22B6-4C11-B23B-338396B61473}"/>
     <hyperlink ref="A8" r:id="rId2" xr:uid="{24181CA8-57FD-4593-95AA-29B38B04A407}"/>
+    <hyperlink ref="A14" r:id="rId3" xr:uid="{FB635159-B37B-4C26-9815-51CC6F4D66C4}"/>
+    <hyperlink ref="A19" r:id="rId4" xr:uid="{7FF07BB4-6403-43DF-A476-9B16CD288C2A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>